--- a/donnees/evaluation_t4_2022.xlsx
+++ b/donnees/evaluation_t4_2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9360" windowHeight="9048" firstSheet="21" activeTab="28"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9360" windowHeight="9048" firstSheet="22" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="BCR" sheetId="34" r:id="rId1"/>
@@ -55,6 +55,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">DOSSO!$A$1:$P$37</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">DRFM!$A$1:$R$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">DRH!$A$1:$R$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="28" hidden="1">DS_PLAN!$A$1:$O$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">ENSTAT!$A$1:$R$79</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">MARADI!$A$1:$J$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">NIAMEY!$A$1:$L$25</definedName>
@@ -10276,11 +10277,11 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
-      <selection pane="bottomRight" activeCell="O18" sqref="O18:O22"/>
+      <selection pane="bottomRight" activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15626,8 +15627,8 @@
   </sheetPr>
   <dimension ref="A1:AB10"/>
   <sheetViews>
-    <sheetView topLeftCell="E4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15638,10 +15639,14 @@
     <col min="5" max="5" width="28.5546875" customWidth="1"/>
     <col min="6" max="8" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="18" width="0" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="9.33203125" customWidth="1"/>
+    <col min="21" max="21" width="9.21875" customWidth="1"/>
+    <col min="22" max="22" width="8.77734375" customWidth="1"/>
+    <col min="23" max="23" width="14.88671875" customWidth="1"/>
     <col min="26" max="26" width="21.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="37" customFormat="1" ht="72" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="37" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -27091,7 +27096,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
@@ -30407,11 +30412,8 @@
   </sheetPr>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -30621,7 +30623,9 @@
         <v>1465</v>
       </c>
       <c r="M5" s="170"/>
-      <c r="N5" s="97"/>
+      <c r="N5" s="97">
+        <v>1</v>
+      </c>
       <c r="O5" s="22"/>
     </row>
     <row r="6" spans="1:15" ht="108.6" x14ac:dyDescent="0.3">
@@ -30864,6 +30868,7 @@
       <c r="O12" s="22"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O12"/>
   <mergeCells count="3">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
@@ -30887,11 +30892,11 @@
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="C38" sqref="C38:C40"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32668,7 +32673,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="O7" sqref="O7"/>
